--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mdk-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mdk-Itga4.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.301656666666667</v>
+        <v>2.856696666666667</v>
       </c>
       <c r="H2">
-        <v>6.90497</v>
+        <v>8.57009</v>
       </c>
       <c r="I2">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="J2">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N2">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O2">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P2">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q2">
-        <v>0.92947110673</v>
+        <v>0.9515847043111111</v>
       </c>
       <c r="R2">
-        <v>8.365239960570001</v>
+        <v>8.564262338800001</v>
       </c>
       <c r="S2">
-        <v>0.0002364023098047048</v>
+        <v>0.0001221883935340738</v>
       </c>
       <c r="T2">
-        <v>0.0002364023098047048</v>
+        <v>0.0001221883935340738</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.301656666666667</v>
+        <v>2.856696666666667</v>
       </c>
       <c r="H3">
-        <v>6.90497</v>
+        <v>8.57009</v>
       </c>
       <c r="I3">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="J3">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.412548</v>
       </c>
       <c r="O3">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P3">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q3">
-        <v>0.3165146181733333</v>
+        <v>0.3928414988133334</v>
       </c>
       <c r="R3">
-        <v>2.84863156356</v>
+        <v>3.53557348932</v>
       </c>
       <c r="S3">
-        <v>8.050254201701171E-05</v>
+        <v>5.04428785330976E-05</v>
       </c>
       <c r="T3">
-        <v>8.05025420170117E-05</v>
+        <v>5.04428785330976E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.301656666666667</v>
+        <v>2.856696666666667</v>
       </c>
       <c r="H4">
-        <v>6.90497</v>
+        <v>8.57009</v>
       </c>
       <c r="I4">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="J4">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N4">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O4">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P4">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q4">
-        <v>53.94291610217111</v>
+        <v>261.1065336845978</v>
       </c>
       <c r="R4">
-        <v>485.48624491954</v>
+        <v>2349.95880316138</v>
       </c>
       <c r="S4">
-        <v>0.01371987775824324</v>
+        <v>0.0335274282443077</v>
       </c>
       <c r="T4">
-        <v>0.01371987775824324</v>
+        <v>0.0335274282443077</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>2.301656666666667</v>
+        <v>2.856696666666667</v>
       </c>
       <c r="H5">
-        <v>6.90497</v>
+        <v>8.57009</v>
       </c>
       <c r="I5">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="J5">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N5">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O5">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P5">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q5">
-        <v>0.9903974931344445</v>
+        <v>1.645391575976667</v>
       </c>
       <c r="R5">
-        <v>8.913577438210002</v>
+        <v>14.80852418379</v>
       </c>
       <c r="S5">
-        <v>0.0002518983681219308</v>
+        <v>0.0002112767812389683</v>
       </c>
       <c r="T5">
-        <v>0.0002518983681219307</v>
+        <v>0.0002112767812389683</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>2.301656666666667</v>
+        <v>2.856696666666667</v>
       </c>
       <c r="H6">
-        <v>6.90497</v>
+        <v>8.57009</v>
       </c>
       <c r="I6">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="J6">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N6">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O6">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P6">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q6">
-        <v>123.5276423320889</v>
+        <v>183.5384481735989</v>
       </c>
       <c r="R6">
-        <v>1111.7487809888</v>
+        <v>1651.84603356239</v>
       </c>
       <c r="S6">
-        <v>0.03141810408154853</v>
+        <v>0.02356728521640557</v>
       </c>
       <c r="T6">
-        <v>0.03141810408154853</v>
+        <v>0.02356728521640557</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>114.933136</v>
       </c>
       <c r="I7">
-        <v>0.7607888438897402</v>
+        <v>0.7708435061432634</v>
       </c>
       <c r="J7">
-        <v>0.7607888438897401</v>
+        <v>0.7708435061432632</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N7">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O7">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P7">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q7">
-        <v>15.471034503824</v>
+        <v>12.76166460750222</v>
       </c>
       <c r="R7">
-        <v>139.239310534416</v>
+        <v>114.85498146752</v>
       </c>
       <c r="S7">
-        <v>0.003934913377393134</v>
+        <v>0.001638663684007196</v>
       </c>
       <c r="T7">
-        <v>0.003934913377393133</v>
+        <v>0.001638663684007196</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>114.933136</v>
       </c>
       <c r="I8">
-        <v>0.7607888438897402</v>
+        <v>0.7708435061432634</v>
       </c>
       <c r="J8">
-        <v>0.7607888438897401</v>
+        <v>0.7708435061432632</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,10 +936,10 @@
         <v>0.412548</v>
       </c>
       <c r="O8">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P8">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q8">
         <v>5.268381710058667</v>
@@ -948,10 +948,10 @@
         <v>47.415435390528</v>
       </c>
       <c r="S8">
-        <v>0.00133996376667631</v>
+        <v>0.0006764874369669381</v>
       </c>
       <c r="T8">
-        <v>0.00133996376667631</v>
+        <v>0.000676487436966938</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>114.933136</v>
       </c>
       <c r="I9">
-        <v>0.7607888438897402</v>
+        <v>0.7708435061432634</v>
       </c>
       <c r="J9">
-        <v>0.7607888438897401</v>
+        <v>0.7708435061432632</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N9">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O9">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P9">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q9">
-        <v>897.8791381580835</v>
+        <v>3501.689334238084</v>
       </c>
       <c r="R9">
-        <v>8080.912243422752</v>
+        <v>31515.20400814275</v>
       </c>
       <c r="S9">
-        <v>0.228367187155273</v>
+        <v>0.4496350061823456</v>
       </c>
       <c r="T9">
-        <v>0.2283671871552729</v>
+        <v>0.4496350061823456</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>114.933136</v>
       </c>
       <c r="I10">
-        <v>0.7607888438897402</v>
+        <v>0.7708435061432634</v>
       </c>
       <c r="J10">
-        <v>0.7607888438897401</v>
+        <v>0.7708435061432632</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N10">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O10">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P10">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q10">
-        <v>16.48515341449422</v>
+        <v>22.06628095795734</v>
       </c>
       <c r="R10">
-        <v>148.366380730448</v>
+        <v>198.596528621616</v>
       </c>
       <c r="S10">
-        <v>0.004192845066891809</v>
+        <v>0.002833424506834886</v>
       </c>
       <c r="T10">
-        <v>0.004192845066891809</v>
+        <v>0.002833424506834885</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>114.933136</v>
       </c>
       <c r="I11">
-        <v>0.7607888438897402</v>
+        <v>0.7708435061432634</v>
       </c>
       <c r="J11">
-        <v>0.7607888438897401</v>
+        <v>0.7708435061432632</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N11">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O11">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P11">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q11">
-        <v>2056.116002808605</v>
+        <v>2461.426825758562</v>
       </c>
       <c r="R11">
-        <v>18505.04402527744</v>
+        <v>22152.84143182706</v>
       </c>
       <c r="S11">
-        <v>0.5229539345235059</v>
+        <v>0.3160599243331087</v>
       </c>
       <c r="T11">
-        <v>0.5229539345235059</v>
+        <v>0.3160599243331086</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>3.949784666666666</v>
+        <v>2.081608</v>
       </c>
       <c r="H12">
-        <v>11.849354</v>
+        <v>6.244823999999999</v>
       </c>
       <c r="I12">
-        <v>0.07843565958645962</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="J12">
-        <v>0.07843565958645961</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N12">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O12">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P12">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q12">
-        <v>1.595029692586</v>
+        <v>0.6933975021866665</v>
       </c>
       <c r="R12">
-        <v>14.355267233274</v>
+        <v>6.24057751968</v>
       </c>
       <c r="S12">
-        <v>0.0004056809305896503</v>
+        <v>8.903582254830801E-05</v>
       </c>
       <c r="T12">
-        <v>0.0004056809305896502</v>
+        <v>8.903582254830801E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>3.949784666666666</v>
+        <v>2.081608</v>
       </c>
       <c r="H13">
-        <v>11.849354</v>
+        <v>6.244823999999999</v>
       </c>
       <c r="I13">
-        <v>0.07843565958645962</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="J13">
-        <v>0.07843565958645961</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.412548</v>
       </c>
       <c r="O13">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P13">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q13">
-        <v>0.5431585882213332</v>
+        <v>0.2862544057279999</v>
       </c>
       <c r="R13">
-        <v>4.888427293991999</v>
+        <v>2.576289651552</v>
       </c>
       <c r="S13">
-        <v>0.0001381473226182656</v>
+        <v>3.675654497123981E-05</v>
       </c>
       <c r="T13">
-        <v>0.0001381473226182656</v>
+        <v>3.675654497123981E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>3.949784666666666</v>
+        <v>2.081608</v>
       </c>
       <c r="H14">
-        <v>11.849354</v>
+        <v>6.244823999999999</v>
       </c>
       <c r="I14">
-        <v>0.07843565958645962</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="J14">
-        <v>0.07843565958645961</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N14">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O14">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P14">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q14">
-        <v>92.56936796060309</v>
+        <v>190.2622198962187</v>
       </c>
       <c r="R14">
-        <v>833.1243116454278</v>
+        <v>1712.359979065968</v>
       </c>
       <c r="S14">
-        <v>0.02354415564356551</v>
+        <v>0.02443065225199859</v>
       </c>
       <c r="T14">
-        <v>0.0235441556435655</v>
+        <v>0.02443065225199859</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>3.949784666666666</v>
+        <v>2.081608</v>
       </c>
       <c r="H15">
-        <v>11.849354</v>
+        <v>6.244823999999999</v>
       </c>
       <c r="I15">
-        <v>0.07843565958645962</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="J15">
-        <v>0.07843565958645961</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N15">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O15">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P15">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q15">
-        <v>1.699583125902444</v>
+        <v>1.198958331016</v>
       </c>
       <c r="R15">
-        <v>15.296248133122</v>
+        <v>10.790624979144</v>
       </c>
       <c r="S15">
-        <v>0.0004322731215195826</v>
+        <v>0.0001539524455546976</v>
       </c>
       <c r="T15">
-        <v>0.0004322731215195825</v>
+        <v>0.0001539524455546976</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>3.949784666666666</v>
+        <v>2.081608</v>
       </c>
       <c r="H16">
-        <v>11.849354</v>
+        <v>6.244823999999999</v>
       </c>
       <c r="I16">
-        <v>0.07843565958645962</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="J16">
-        <v>0.07843565958645961</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N16">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O16">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P16">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q16">
-        <v>211.9810459391289</v>
+        <v>133.7401714657893</v>
       </c>
       <c r="R16">
-        <v>1907.82941345216</v>
+        <v>1203.661543192104</v>
       </c>
       <c r="S16">
-        <v>0.05391540256816661</v>
+        <v>0.01717292914476449</v>
       </c>
       <c r="T16">
-        <v>0.05391540256816661</v>
+        <v>0.01717292914476449</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.052037666666667</v>
+        <v>4.573220666666667</v>
       </c>
       <c r="H17">
-        <v>9.156113</v>
+        <v>13.719662</v>
       </c>
       <c r="I17">
-        <v>0.0606080097196149</v>
+        <v>0.09201621679565497</v>
       </c>
       <c r="J17">
-        <v>0.06060800971961489</v>
+        <v>0.09201621679565496</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N17">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O17">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P17">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q17">
-        <v>1.232495214817</v>
+        <v>1.523370292204445</v>
       </c>
       <c r="R17">
-        <v>11.092456933353</v>
+        <v>13.71033262984</v>
       </c>
       <c r="S17">
-        <v>0.0003134736663639212</v>
+        <v>0.0001956086178337075</v>
       </c>
       <c r="T17">
-        <v>0.0003134736663639212</v>
+        <v>0.0001956086178337075</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.052037666666667</v>
+        <v>4.573220666666667</v>
       </c>
       <c r="H18">
-        <v>9.156113</v>
+        <v>13.719662</v>
       </c>
       <c r="I18">
-        <v>0.0606080097196149</v>
+        <v>0.09201621679565497</v>
       </c>
       <c r="J18">
-        <v>0.06060800971961489</v>
+        <v>0.09201621679565496</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.412548</v>
       </c>
       <c r="O18">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P18">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q18">
-        <v>0.4197040117693333</v>
+        <v>0.6288910131973333</v>
       </c>
       <c r="R18">
-        <v>3.777336105923999</v>
+        <v>5.660019118776</v>
       </c>
       <c r="S18">
-        <v>0.0001067478021620669</v>
+        <v>8.075285601214863E-05</v>
       </c>
       <c r="T18">
-        <v>0.0001067478021620669</v>
+        <v>8.075285601214863E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.052037666666667</v>
+        <v>4.573220666666667</v>
       </c>
       <c r="H19">
-        <v>9.156113</v>
+        <v>13.719662</v>
       </c>
       <c r="I19">
-        <v>0.0606080097196149</v>
+        <v>0.09201621679565497</v>
       </c>
       <c r="J19">
-        <v>0.06060800971961489</v>
+        <v>0.09201621679565496</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N19">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O19">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P19">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q19">
-        <v>71.5292659317851</v>
+        <v>417.9995062063871</v>
       </c>
       <c r="R19">
-        <v>643.7633933860659</v>
+        <v>3761.995555857484</v>
       </c>
       <c r="S19">
-        <v>0.01819280186599823</v>
+        <v>0.05367329669130139</v>
       </c>
       <c r="T19">
-        <v>0.01819280186599822</v>
+        <v>0.05367329669130138</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.052037666666667</v>
+        <v>4.573220666666667</v>
       </c>
       <c r="H20">
-        <v>9.156113</v>
+        <v>13.719662</v>
       </c>
       <c r="I20">
-        <v>0.0606080097196149</v>
+        <v>0.09201621679565497</v>
       </c>
       <c r="J20">
-        <v>0.06060800971961489</v>
+        <v>0.09201621679565496</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N20">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O20">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P20">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q20">
-        <v>1.313284686545445</v>
+        <v>2.634069919924667</v>
       </c>
       <c r="R20">
-        <v>11.819562178909</v>
+        <v>23.706629279322</v>
       </c>
       <c r="S20">
-        <v>0.0003340217152340989</v>
+        <v>0.0003382281897910741</v>
       </c>
       <c r="T20">
-        <v>0.0003340217152340988</v>
+        <v>0.000338228189791074</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.052037666666667</v>
+        <v>4.573220666666667</v>
       </c>
       <c r="H21">
-        <v>9.156113</v>
+        <v>13.719662</v>
       </c>
       <c r="I21">
-        <v>0.0606080097196149</v>
+        <v>0.09201621679565497</v>
       </c>
       <c r="J21">
-        <v>0.06060800971961489</v>
+        <v>0.09201621679565496</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N21">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O21">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P21">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q21">
-        <v>163.7998502261689</v>
+        <v>293.8225237945336</v>
       </c>
       <c r="R21">
-        <v>1474.19865203552</v>
+        <v>2644.402714150802</v>
       </c>
       <c r="S21">
-        <v>0.04166096466985658</v>
+        <v>0.03772833044071665</v>
       </c>
       <c r="T21">
-        <v>0.04166096466985657</v>
+        <v>0.03772833044071664</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.742477666666666</v>
+        <v>1.877589</v>
       </c>
       <c r="H22">
-        <v>8.227433</v>
+        <v>5.632767</v>
       </c>
       <c r="I22">
-        <v>0.05446070174444989</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="J22">
-        <v>0.05446070174444988</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N22">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O22">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P22">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q22">
-        <v>1.107486528697</v>
+        <v>0.62543741316</v>
       </c>
       <c r="R22">
-        <v>9.967378758273</v>
+        <v>5.62893671844</v>
       </c>
       <c r="S22">
-        <v>0.0002816788726038566</v>
+        <v>8.030939592019973E-05</v>
       </c>
       <c r="T22">
-        <v>0.0002816788726038566</v>
+        <v>8.030939592019972E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.742477666666666</v>
+        <v>1.877589</v>
       </c>
       <c r="H23">
-        <v>8.227433</v>
+        <v>5.632767</v>
       </c>
       <c r="I23">
-        <v>0.05446070174444989</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="J23">
-        <v>0.05446070174444988</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1866,22 +1866,22 @@
         <v>0.412548</v>
       </c>
       <c r="O23">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P23">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q23">
-        <v>0.3771345588093333</v>
+        <v>0.258198528924</v>
       </c>
       <c r="R23">
-        <v>3.394211029284</v>
+        <v>2.323786760316</v>
       </c>
       <c r="S23">
-        <v>9.592065871026936E-05</v>
+        <v>3.315402540536221E-05</v>
       </c>
       <c r="T23">
-        <v>9.592065871026934E-05</v>
+        <v>3.31540254053622E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.742477666666666</v>
+        <v>1.877589</v>
       </c>
       <c r="H24">
-        <v>8.227433</v>
+        <v>5.632767</v>
       </c>
       <c r="I24">
-        <v>0.05446070174444989</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="J24">
-        <v>0.05446070174444988</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N24">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O24">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P24">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q24">
-        <v>64.27424421181176</v>
+        <v>171.614564890566</v>
       </c>
       <c r="R24">
-        <v>578.4681979063059</v>
+        <v>1544.531084015094</v>
       </c>
       <c r="S24">
-        <v>0.01634755473581151</v>
+        <v>0.02203619698385949</v>
       </c>
       <c r="T24">
-        <v>0.01634755473581151</v>
+        <v>0.02203619698385949</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.742477666666666</v>
+        <v>1.877589</v>
       </c>
       <c r="H25">
-        <v>8.227433</v>
+        <v>5.632767</v>
       </c>
       <c r="I25">
-        <v>0.05446070174444989</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="J25">
-        <v>0.05446070174444988</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N25">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O25">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P25">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q25">
-        <v>1.180081740852111</v>
+        <v>1.081448079453</v>
       </c>
       <c r="R25">
-        <v>10.620735667669</v>
+        <v>9.733032715077002</v>
       </c>
       <c r="S25">
-        <v>0.0003001427879531006</v>
+        <v>0.0001388635219967444</v>
       </c>
       <c r="T25">
-        <v>0.0003001427879531005</v>
+        <v>0.0001388635219967444</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.742477666666666</v>
+        <v>1.877589</v>
       </c>
       <c r="H26">
-        <v>8.227433</v>
+        <v>5.632767</v>
       </c>
       <c r="I26">
-        <v>0.05446070174444989</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="J26">
-        <v>0.05446070174444988</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N26">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O26">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P26">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q26">
-        <v>147.1860704587022</v>
+        <v>120.632258716473</v>
       </c>
       <c r="R26">
-        <v>1324.67463412832</v>
+        <v>1085.690328448257</v>
       </c>
       <c r="S26">
-        <v>0.03743540468937115</v>
+        <v>0.01548980541004321</v>
       </c>
       <c r="T26">
-        <v>0.03743540468937114</v>
+        <v>0.0154898054100432</v>
       </c>
     </row>
   </sheetData>
